--- a/Java基礎総合課題/内部設計_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/内部設計_対話型電卓プログラム.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18360" windowHeight="6375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="6375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>■概略フロー</t>
     <rPh sb="1" eb="3">
@@ -142,7 +142,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レビュー結果反映：用語統一</t>
+    <t>レビュー結果反映：矢印の重複をなくした</t>
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
     </rPh>
@@ -150,10 +150,23 @@
       <t>ハンエイ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ヨウゴ</t>
+      <t>ヤジルシ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウイツ</t>
+    <rPh sb="12" eb="14">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー結果反映：アルゴリズムを変更した</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1199,13 +1212,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1218,14 +1231,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="213" idx="2"/>
-          <a:endCxn id="214" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162676" y="1524000"/>
+          <a:off x="6162675" y="1524000"/>
           <a:ext cx="0" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1252,13 +1262,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1271,14 +1281,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="214" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162676" y="2009775"/>
+          <a:off x="6162675" y="2009775"/>
           <a:ext cx="0" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1305,13 +1312,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1324,14 +1331,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="199" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162676" y="2743200"/>
+          <a:off x="6162675" y="2743200"/>
           <a:ext cx="0" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1464,13 +1468,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1483,14 +1487,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="2"/>
-          <a:endCxn id="197" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162676" y="4648200"/>
+          <a:off x="6162675" y="4648200"/>
           <a:ext cx="0" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1517,13 +1518,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1536,14 +1537,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="197" idx="2"/>
-          <a:endCxn id="198" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162676" y="5124450"/>
+          <a:off x="6162675" y="5124450"/>
           <a:ext cx="0" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1737,79 +1735,26 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>44903</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="244" name="直線コネクタ 243">
+        <xdr:cNvPr id="250" name="直線コネクタ 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA4BF7-B4BA-4930-96EC-19A3608346AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580886B5-53B1-4D92-8231-2D9091428660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="2"/>
-          <a:endCxn id="211" idx="3"/>
+          <a:endCxn id="219" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6162675" y="7615238"/>
-          <a:ext cx="1" cy="525915"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="246" name="直線コネクタ 245">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589C66D9-4AE7-439C-BE10-4001BEBCDFAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="211" idx="1"/>
-          <a:endCxn id="50" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6162676" y="8801100"/>
-          <a:ext cx="0" cy="185737"/>
+          <a:ext cx="1" cy="590549"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1836,120 +1781,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>204788</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="248" name="直線コネクタ 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262DF29C-4584-4DE5-BD19-C739CB514055}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="212" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6162675" y="9577387"/>
-          <a:ext cx="1" cy="152401"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="250" name="直線コネクタ 249">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580886B5-53B1-4D92-8231-2D9091428660}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="212" idx="3"/>
-          <a:endCxn id="219" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6162675" y="10044113"/>
-          <a:ext cx="1" cy="276224"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1967,7 +1806,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6162675" y="10663237"/>
+          <a:off x="6162675" y="8548687"/>
           <a:ext cx="1" cy="466726"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1995,14 +1834,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2020,7 +1859,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="11444288"/>
+          <a:off x="6162675" y="9329738"/>
           <a:ext cx="1" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2048,14 +1887,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2073,7 +1912,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6162675" y="12253912"/>
+          <a:off x="6162675" y="10139362"/>
           <a:ext cx="1" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2100,7 +1939,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
@@ -2125,8 +1964,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6172200" y="3595688"/>
-          <a:ext cx="1419225" cy="2233612"/>
+          <a:off x="6172201" y="3595688"/>
+          <a:ext cx="1419224" cy="2233612"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -2165,8 +2004,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2179,13 +2018,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="3"/>
-          <a:endCxn id="220" idx="0"/>
+          <a:endCxn id="124" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6734174" y="7372351"/>
-          <a:ext cx="1557339" cy="2947986"/>
+          <a:ext cx="1557339" cy="247649"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2221,8 +2060,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2241,7 +2080,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
           <a:off x="4014788" y="7372351"/>
-          <a:ext cx="1576388" cy="2947986"/>
+          <a:ext cx="1576388" cy="833436"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2271,14 +2110,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>585789</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2295,7 +2134,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4938713" y="9739312"/>
+          <a:off x="4938713" y="7624762"/>
           <a:ext cx="290513" cy="2138362"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -2326,14 +2165,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>61914</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2350,7 +2189,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7086601" y="9748837"/>
+          <a:off x="7086601" y="7634287"/>
           <a:ext cx="290513" cy="2119313"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -3084,13 +2923,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>671513</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>671513</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -3103,14 +2942,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="2"/>
-          <a:endCxn id="297" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6157913" y="466725"/>
+          <a:off x="6162675" y="466725"/>
           <a:ext cx="0" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3137,13 +2973,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>671513</xdr:colOff>
+      <xdr:colOff>673894</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>678657</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -3156,14 +2992,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="297" idx="2"/>
-          <a:endCxn id="213" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6157913" y="1038225"/>
+          <a:off x="6160294" y="1038225"/>
           <a:ext cx="4763" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3189,1830 +3022,1980 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="371" name="グループ化 370">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フローチャート: 端子 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9A6631-906A-4F3E-A578-F0F8510E289B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0869DCA0-768E-431A-BA18-4BC27E8AFCFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981325" y="161925"/>
-          <a:ext cx="6905625" cy="12692062"/>
-          <a:chOff x="2981325" y="161925"/>
-          <a:chExt cx="6905625" cy="12692062"/>
+          <a:off x="5495926" y="161925"/>
+          <a:ext cx="1333499" cy="304800"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="フローチャート: 端子 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0869DCA0-768E-431A-BA18-4BC27E8AFCFC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5491163" y="161925"/>
-            <a:ext cx="1333499" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartTerminator">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>１．変換</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="294" name="グループ化 293">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA27E0A-366B-469E-9FAC-163483EF3525}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2981325" y="1181100"/>
-            <a:ext cx="6905625" cy="11672887"/>
-            <a:chOff x="2990850" y="704850"/>
-            <a:chExt cx="6905625" cy="11672887"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="フローチャート: 処理 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093D91AA-A1FD-4675-98F3-FE788592DB89}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="1676400"/>
-              <a:ext cx="2066925" cy="590550"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>データを単語毎に分割し配列に入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="四角形: 上の 2 つの角を切り取る 35">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F3EDBD-5019-4BEF-AA81-F89118C4E05D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5386388" y="5495925"/>
-              <a:ext cx="1571625" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="snip2SameRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>i..</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>配列</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>.length</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="フローチャート: 処理 43">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223E37D3-808E-408D-BCDA-579C06459FC3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="3829050"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>配列</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>[0]</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>をスタックに入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="フローチャート: 判断 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0B168A-6689-4DBD-85B8-4AAEC03EF2B6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5600701" y="6653213"/>
-              <a:ext cx="1142998" cy="485775"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartDecision">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>単語</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="テキスト ボックス 47">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C335CDF-D474-4C02-833E-87C2B591BCA5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7753351" y="2828925"/>
-              <a:ext cx="457200" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>No</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="テキスト ボックス 48">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5C169C-A8A0-489D-A872-0A50C9DAB9A1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6267451" y="3476625"/>
-              <a:ext cx="457200" cy="219075"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>Yes</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="フローチャート: 処理 49">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AFF639-4C10-4071-8B98-F01AD384A0AE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="8510587"/>
-              <a:ext cx="2066925" cy="590550"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>キューにスタックの値を入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="フローチャート: 端子 50">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999F91C8-A7B4-4C8A-8AC5-53BBE5A3A0C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5800725" y="12072937"/>
-              <a:ext cx="742950" cy="304800"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartTerminator">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>終了</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="吹き出し: 四角形 95">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD67E4A-788E-40DB-A315-D5EE8FB267B7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7743825" y="1133475"/>
-              <a:ext cx="2152650" cy="609600"/>
-            </a:xfrm>
-            <a:prstGeom prst="wedgeRectCallout">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -72840"/>
-                <a:gd name="adj2" fmla="val 85336"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>a=12+b*34</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>だった場合</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>a,=,12,+,b,*,34</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>のようにする</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="110" name="フローチャート: 判断 109">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE692D7-204B-4AF5-AA4C-95739CBD87C5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4743450" y="2876550"/>
-              <a:ext cx="2857500" cy="485775"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartDecision">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>配列</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>[1]</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>が</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>"="</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>か？</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="118" name="四角形: 上の 2 つの角を切り取る 117">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4748D4-6157-40CD-B7F2-B630110F6F50}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="5386388" y="10653713"/>
-              <a:ext cx="1571625" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="snip2SameRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="197" name="フローチャート: 処理 196">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012DF9F-A757-4853-8578-6B8CB1404EB7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="4305300"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>配列</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>[1]</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>をスタックに入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="198" name="フローチャート: 処理 197">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034AFF9E-0403-4594-A694-485D66793D38}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5557838" y="4781550"/>
-              <a:ext cx="1228725" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>i = 2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="199" name="フローチャート: 処理 198">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1D679B-B01A-4904-8FFD-66C65B2618AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5557838" y="2390775"/>
-              <a:ext cx="1228725" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>i = 0</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="200" name="フローチャート: 処理 199">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755DC3DF-6A94-4740-BB8B-4EDE6C0B4299}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="6000750"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>単語</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>配列</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>[i]</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="202" name="テキスト ボックス 201">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2630F1-9EAB-4334-8485-39F8C2FDF8F6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4276725" y="6591300"/>
-              <a:ext cx="1190625" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>数字</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>or</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>変数</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="203" name="テキスト ボックス 202">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9416BB4B-042F-4266-8ED8-F5B65B27E999}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6334126" y="7286625"/>
-              <a:ext cx="981074" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>"+"or"-"</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="210" name="テキスト ボックス 209">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E9D9A7-83CA-43CF-B432-5F5FA7266F45}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6829426" y="6591300"/>
-              <a:ext cx="981074" cy="247650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>"*"or"/"</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="211" name="四角形: 上の 2 つの角を切り取る 210">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210BE221-D30C-4329-90DF-E97E0757B52C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5386388" y="7664903"/>
-              <a:ext cx="1571625" cy="659947"/>
-            </a:xfrm>
-            <a:prstGeom prst="snip2SameRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>スタックの先頭が</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>"*"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>または</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>"/"</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="212" name="四角形: 上の 2 つの角を切り取る 211">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F64627-D01D-4F1D-A2B2-AF2C7AADCFD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="5386388" y="9253538"/>
-              <a:ext cx="1571625" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="snip2SameRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="213" name="フローチャート: 処理 212">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75ADD3F3-EB8C-43F2-B9AD-8D9B0220974F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="704850"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>スタックを作成</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="214" name="フローチャート: 処理 213">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012A6F10-EE5B-4717-B0B0-9E68014F9CA2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="1190625"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>キューを作成</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="218" name="フローチャート: 処理 217">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD45986-EC9C-49C0-863A-406054BFF285}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2990850" y="9844087"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>単語をキューに入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="219" name="フローチャート: 処理 218">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84121D11-3020-4C4D-B2F1-971D8CF62F5C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="9844087"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>単語をスタックに入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="220" name="フローチャート: 処理 219">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98F393F-8B0F-464B-9F1E-433BE03A650C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7267575" y="9844087"/>
-              <a:ext cx="2066925" cy="342900"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>単語をスタックに入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="221" name="フローチャート: 処理 220">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE586A7-A8C6-41E5-A591-8D31FE15F18E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5138738" y="11187112"/>
-              <a:ext cx="2066925" cy="590550"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>スタックの中身をすべてキューに入れる</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="297" name="フローチャート: 処理 296">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E5B894-3148-417B-BBF8-0EB6490D49BD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5124450" y="695325"/>
-            <a:ext cx="2066925" cy="342900"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>文法チェック</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="313" name="吹き出し: 四角形 312">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AE9E05-0ACD-42D4-800E-67CD86D1B1AB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7629525" y="457200"/>
-            <a:ext cx="2152650" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -68858"/>
-              <a:gd name="adj2" fmla="val 92241"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>エラーなら例外を投げる</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            </a:rPr>
+            <a:t>１．変換</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート: 処理 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093D91AA-A1FD-4675-98F3-FE788592DB89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="2152650"/>
+          <a:ext cx="2066925" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>データを単語毎に分割し配列に入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形: 上の 2 つの角を切り取る 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F3EDBD-5019-4BEF-AA81-F89118C4E05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5376863" y="5972175"/>
+          <a:ext cx="1571625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i..</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.length</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="フローチャート: 処理 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223E37D3-808E-408D-BCDA-579C06459FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="4305300"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[0]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をスタックに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="フローチャート: 判断 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0B168A-6689-4DBD-85B8-4AAEC03EF2B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="7129463"/>
+          <a:ext cx="1142998" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>単語</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C335CDF-D474-4C02-833E-87C2B591BCA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743826" y="3305175"/>
+          <a:ext cx="457200" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5C169C-A8A0-489D-A872-0A50C9DAB9A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257926" y="3952875"/>
+          <a:ext cx="457200" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="フローチャート: 端子 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999F91C8-A7B4-4C8A-8AC5-53BBE5A3A0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="10434637"/>
+          <a:ext cx="742950" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="吹き出し: 四角形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD67E4A-788E-40DB-A315-D5EE8FB267B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="1609725"/>
+          <a:ext cx="2152650" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72840"/>
+            <a:gd name="adj2" fmla="val 85336"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>a=12+b*34</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>だった場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>a,=,12,+,b,*,34</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="フローチャート: 判断 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE692D7-204B-4AF5-AA4C-95739CBD87C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733925" y="3352800"/>
+          <a:ext cx="2857500" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[1]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>か？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="四角形: 上の 2 つの角を切り取る 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4748D4-6157-40CD-B7F2-B630110F6F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5376863" y="9015413"/>
+          <a:ext cx="1571625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="フローチャート: 処理 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012DF9F-A757-4853-8578-6B8CB1404EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="4781550"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[1]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をスタックに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="フローチャート: 処理 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034AFF9E-0403-4594-A694-485D66793D38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5548313" y="5257800"/>
+          <a:ext cx="1228725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i = 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="フローチャート: 処理 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1D679B-B01A-4904-8FFD-66C65B2618AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5548313" y="2867025"/>
+          <a:ext cx="1228725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i = 0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="フローチャート: 処理 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755DC3DF-6A94-4740-BB8B-4EDE6C0B4299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="6477000"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>単語</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[i]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="テキスト ボックス 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2630F1-9EAB-4334-8485-39F8C2FDF8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="7067550"/>
+          <a:ext cx="1190625" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>数字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="テキスト ボックス 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9416BB4B-042F-4266-8ED8-F5B65B27E999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210301" y="7715250"/>
+          <a:ext cx="981074" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"+"or"-"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="テキスト ボックス 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E9D9A7-83CA-43CF-B432-5F5FA7266F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819901" y="7067550"/>
+          <a:ext cx="981074" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"*"or"/"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="フローチャート: 処理 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75ADD3F3-EB8C-43F2-B9AD-8D9B0220974F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="1181100"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スタックを作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="フローチャート: 処理 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012A6F10-EE5B-4717-B0B0-9E68014F9CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="1666875"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キューを作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="フローチャート: 処理 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD45986-EC9C-49C0-863A-406054BFF285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="8205787"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>単語をキューに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="フローチャート: 処理 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84121D11-3020-4C4D-B2F1-971D8CF62F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="8205787"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>単語をスタックに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="フローチャート: 処理 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98F393F-8B0F-464B-9F1E-433BE03A650C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="8205787"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>単語をキューに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="フローチャート: 処理 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE586A7-A8C6-41E5-A591-8D31FE15F18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="9548812"/>
+          <a:ext cx="2066925" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スタックの中身をすべてキューに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="フローチャート: 処理 296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E5B894-3148-417B-BBF8-0EB6490D49BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="695325"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文法チェック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="吹き出し: 四角形 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AE9E05-0ACD-42D4-800E-67CD86D1B1AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="457200"/>
+          <a:ext cx="2152650" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68858"/>
+            <a:gd name="adj2" fmla="val 92241"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーなら例外を投げる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5658,86 +5641,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B25E27-CDFC-408C-8A04-A29C4A0AF03A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15611475" y="7077075"/>
-          <a:ext cx="2047875" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>計算時は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>double</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で計算する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7150,6 +7053,146 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="フローチャート: 処理 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9804F009-316A-4DDB-8EF6-6A0A560C3742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="7620000"/>
+          <a:ext cx="2066925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[++i]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をキューに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2781D069-D21E-4E94-8918-8965C1F3181C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="2"/>
+          <a:endCxn id="220" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8291513" y="7962900"/>
+          <a:ext cx="0" cy="242887"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7474,7 +7517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -7978,10 +8021,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="10">
+        <v>42851</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="11"/>
@@ -8022,8 +8073,8 @@
   </sheetPr>
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8036,7 +8087,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="77" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>